--- a/clean/name/08003C.xlsx
+++ b/clean/name/08003C.xlsx
@@ -995,6 +995,11 @@
           <t>HEMOGLOBIN(HB)</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Hb</t>
+        </is>
+      </c>
       <c r="D36">
         <v>45234</v>
       </c>
@@ -1423,6 +1428,11 @@
       <c r="B60" t="inlineStr">
         <is>
           <t>HEMOGLOBIN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Hb</t>
         </is>
       </c>
       <c r="D60">
